--- a/inst/results/Data_analysis/4.test_dunn_taxa.xlsx
+++ b/inst/results/Data_analysis/4.test_dunn_taxa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,11 +373,6 @@
           <t>PFAS</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HBCDD</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,9 +386,6 @@
       <c r="C2">
         <v>0.003912</v>
       </c>
-      <c r="D2">
-        <v>1.693E-08</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -407,9 +399,6 @@
       <c r="C3">
         <v>0.9981</v>
       </c>
-      <c r="D3">
-        <v>0.6664</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -423,9 +412,6 @@
       <c r="C4">
         <v>0.03847</v>
       </c>
-      <c r="D4">
-        <v>0.003244</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -439,9 +425,6 @@
       <c r="C5">
         <v>0.7168</v>
       </c>
-      <c r="D5">
-        <v>0.02189</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -455,9 +438,6 @@
       <c r="C6">
         <v>1.477E-05</v>
       </c>
-      <c r="D6">
-        <v>0.02102</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -470,9 +450,6 @@
       </c>
       <c r="C7">
         <v>0.6981000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.2937</v>
       </c>
     </row>
   </sheetData>
